--- a/data/trans_bre/P14B23_2016_2023-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P14B23_2016_2023-Clase-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>1.949119956642445</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>1.721967586446999</v>
+        <v>1.721967586447</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>2.852524721897111</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.8673131542111363</v>
+        <v>0.8673131542111367</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2943577790422764</v>
+        <v>0.2835930519910267</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5713836536122041</v>
+        <v>-0.1966862672145574</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.237226177578732</v>
+        <v>-0.3109085375501223</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2845537325407002</v>
+        <v>-0.1403513191177551</v>
       </c>
     </row>
     <row r="6">
@@ -629,14 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.343388980678823</v>
+        <v>4.247977569516046</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.703692276911177</v>
-      </c>
-      <c r="E6" s="6" t="inlineStr"/>
+        <v>3.892011051238335</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>17.91670623650314</v>
+      </c>
       <c r="F6" s="6" t="n">
-        <v>3.023791795659005</v>
+        <v>3.330870781564427</v>
       </c>
     </row>
     <row r="7">
@@ -654,13 +656,13 @@
         <v>0.6807423671543997</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.474289165112143</v>
+        <v>2.474289165112145</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>1.401198673889025</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>1.153818069956794</v>
+        <v>1.153818069956795</v>
       </c>
     </row>
     <row r="8">
@@ -671,14 +673,14 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.4382349554540282</v>
+        <v>-0.4360649693151575</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5252957418377909</v>
+        <v>0.5096959736537012</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>0.06606877673772686</v>
+        <v>0.07216272068409238</v>
       </c>
     </row>
     <row r="9">
@@ -689,14 +691,14 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.225961194838186</v>
+        <v>2.257042664947531</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.685533337110913</v>
+        <v>4.762439890101678</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>4.043199830041913</v>
+        <v>3.737614307379784</v>
       </c>
     </row>
     <row r="10">
@@ -720,7 +722,7 @@
         <v>5.476780804480086</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.5785390297917413</v>
+        <v>0.5785390297917414</v>
       </c>
     </row>
     <row r="11">
@@ -731,16 +733,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.788287622359708</v>
+        <v>2.574534850421901</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9208548693999973</v>
+        <v>-0.3793126691941622</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1.112849091850516</v>
+        <v>1.098783459489876</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1910590911357705</v>
+        <v>-0.09957851487825897</v>
       </c>
     </row>
     <row r="12">
@@ -751,16 +753,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.92708811974804</v>
+        <v>11.73417378358431</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.074946393260452</v>
+        <v>6.037491377764274</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>18.80193722985958</v>
+        <v>20.10765265871593</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.824888119834146</v>
+        <v>1.95073845770738</v>
       </c>
     </row>
     <row r="13">
@@ -784,7 +786,7 @@
         <v>0.9119858255838051</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.43016333474817</v>
+        <v>0.4301633347481698</v>
       </c>
     </row>
     <row r="14">
@@ -795,16 +797,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.122376664920629</v>
+        <v>0.07954664997463451</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03849845663267423</v>
+        <v>-0.03420468793314932</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.002957337428610916</v>
+        <v>-0.01681352111932393</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.003318924469230349</v>
+        <v>-0.01302081529897674</v>
       </c>
     </row>
     <row r="15">
@@ -815,16 +817,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.163193338308497</v>
+        <v>3.131825354481271</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.262934921187508</v>
+        <v>3.349492348745061</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.627574549457698</v>
+        <v>2.59728228843607</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.047480035701268</v>
+        <v>1.183075171953331</v>
       </c>
     </row>
     <row r="16">
@@ -859,16 +861,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.678553873048493</v>
+        <v>1.673480868650768</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.32902709247356</v>
+        <v>2.52951961504075</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.4215543506818006</v>
+        <v>0.3949220530064885</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.4687790104884959</v>
+        <v>0.4940324367722133</v>
       </c>
     </row>
     <row r="18">
@@ -879,16 +881,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.210473531865091</v>
+        <v>6.090321539517823</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.708185538990186</v>
+        <v>6.777233499427748</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3.859073041027435</v>
+        <v>3.804570450181346</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3.249778278331291</v>
+        <v>3.242663843208888</v>
       </c>
     </row>
     <row r="19">
@@ -906,13 +908,13 @@
         <v>4.814279022305637</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1.790127442895381</v>
+        <v>1.790127442895383</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>14.53000500559937</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.4004079742072889</v>
+        <v>0.4004079742072891</v>
       </c>
     </row>
     <row r="20">
@@ -923,14 +925,14 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.242118617754988</v>
+        <v>3.246844798845006</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.453134565347072</v>
+        <v>-3.238988767221754</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.4148897005487182</v>
+        <v>-0.3769198787469442</v>
       </c>
     </row>
     <row r="21">
@@ -941,14 +943,14 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.30211551994073</v>
+        <v>6.398236617947378</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.752456351603295</v>
+        <v>4.964749581131767</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>2.330798659032933</v>
+        <v>2.629634665315467</v>
       </c>
     </row>
     <row r="22">
@@ -966,13 +968,13 @@
         <v>3.015539349335045</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>2.632624399301785</v>
+        <v>2.632624399301783</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>2.195374873417381</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.7937830176022783</v>
+        <v>0.793783017602278</v>
       </c>
     </row>
     <row r="23">
@@ -983,16 +985,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.236267400876</v>
+        <v>2.167517270420193</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.6782932357112</v>
+        <v>1.684971903966222</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1.320475785801833</v>
+        <v>1.240524760552641</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.4352646924811587</v>
+        <v>0.4356052035806906</v>
       </c>
     </row>
     <row r="24">
@@ -1003,16 +1005,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.807899134445091</v>
+        <v>3.805886441688337</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.537023071239306</v>
+        <v>3.510389699120698</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>3.424109601003908</v>
+        <v>3.519530983771578</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.291859754912374</v>
+        <v>1.247240025349131</v>
       </c>
     </row>
     <row r="25">
